--- a/sem1/СО-РД-23.xlsx
+++ b/sem1/СО-РД-23.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D70A3BB-6A31-D54B-A905-01603B22C1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DF7B24-6501-9043-AE42-65C0E0463EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{CF7C3707-975C-9446-9B9A-68EF236FCF5A}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{CF7C3707-975C-9446-9B9A-68EF236FCF5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
+    <sheet name="Успеваемость" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="28">
   <si>
     <t>№</t>
   </si>
@@ -112,10 +113,13 @@
     <t>Шрейдер Кристина</t>
   </si>
   <si>
-    <t>Романов Роман</t>
-  </si>
-  <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>Лаб 1</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -166,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -174,6 +178,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CB48E3-61F3-564B-A83A-820A041930C1}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,6 +510,376 @@
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>45173</v>
+      </c>
+      <c r="D1" s="4">
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77D4B92-C327-774E-A329-117E86F80DA4}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -509,8 +889,8 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
-        <v>45173</v>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -520,9 +900,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -531,8 +909,8 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
+      <c r="C3" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -542,9 +920,7 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -553,8 +929,8 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
+      <c r="C5" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -564,9 +940,7 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -575,8 +949,8 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
+      <c r="C7" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -586,8 +960,8 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
+      <c r="C8" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -597,9 +971,7 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -608,9 +980,7 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -619,8 +989,8 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
+      <c r="C11" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -630,8 +1000,8 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
+      <c r="C12" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -641,9 +1011,7 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -652,9 +1020,7 @@
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -663,9 +1029,7 @@
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -674,9 +1038,7 @@
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -685,8 +1047,8 @@
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
+      <c r="C17" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -696,8 +1058,8 @@
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>26</v>
+      <c r="C18" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -707,9 +1069,7 @@
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -718,9 +1078,7 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -729,8 +1087,8 @@
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>26</v>
+      <c r="C21" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -740,9 +1098,7 @@
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -751,8 +1107,8 @@
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>26</v>
+      <c r="C23" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -762,35 +1118,8 @@
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>27</v>
+      <c r="C24" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/sem1/СО-РД-23.xlsx
+++ b/sem1/СО-РД-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DF7B24-6501-9043-AE42-65C0E0463EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976CCDEA-8F29-074D-B50D-C818C8E80D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{CF7C3707-975C-9446-9B9A-68EF236FCF5A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CF7C3707-975C-9446-9B9A-68EF236FCF5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="30">
   <si>
     <t>№</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Лаб 2</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -143,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -166,11 +172,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -179,10 +198,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CB48E3-61F3-564B-A83A-820A041930C1}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,357 +539,550 @@
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="3"/>
-    <col min="4" max="4" width="10.83203125" style="5"/>
+    <col min="4" max="4" width="10.83203125" style="4"/>
+    <col min="5" max="5" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="6">
         <v>45173</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="7">
         <v>45182</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="6">
+        <v>45187</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
     </row>
   </sheetData>
@@ -870,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77D4B92-C327-774E-A329-117E86F80DA4}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -882,7 +1104,7 @@
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,8 +1114,11 @@
       <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -902,7 +1127,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -913,7 +1138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -922,7 +1147,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -933,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -942,7 +1167,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -953,7 +1178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -964,7 +1189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -973,7 +1198,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -982,7 +1207,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -993,7 +1218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1004,7 +1229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1013,7 +1238,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1022,7 +1247,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1031,7 +1256,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>

--- a/sem1/СО-РД-23.xlsx
+++ b/sem1/СО-РД-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976CCDEA-8F29-074D-B50D-C818C8E80D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444B46ED-96BC-CD47-980E-10D8C4100FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CF7C3707-975C-9446-9B9A-68EF236FCF5A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{CF7C3707-975C-9446-9B9A-68EF236FCF5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="30">
   <si>
     <t>№</t>
   </si>
@@ -189,12 +189,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -530,17 +527,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CB48E3-61F3-564B-A83A-820A041930C1}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="3"/>
-    <col min="4" max="4" width="10.83203125" style="4"/>
-    <col min="5" max="5" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -550,13 +547,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="5">
         <v>45173</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="6">
         <v>45182</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="5">
         <v>45187</v>
       </c>
       <c r="F1" s="1"/>
@@ -572,13 +569,13 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="1"/>
@@ -594,13 +591,13 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="1"/>
@@ -616,13 +613,13 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="1"/>
@@ -638,13 +635,13 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="1"/>
@@ -660,13 +657,13 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="1"/>
@@ -682,13 +679,13 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="1"/>
@@ -704,13 +701,13 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="1"/>
@@ -726,13 +723,13 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="1"/>
@@ -748,13 +745,13 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="1"/>
@@ -770,13 +767,13 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="1"/>
@@ -792,13 +789,13 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="1"/>
@@ -814,13 +811,13 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="1"/>
@@ -836,13 +833,13 @@
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="1"/>
@@ -858,13 +855,13 @@
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="1"/>
@@ -880,13 +877,13 @@
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="1"/>
@@ -902,13 +899,13 @@
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="1"/>
@@ -924,13 +921,13 @@
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="C18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="1"/>
@@ -946,13 +943,13 @@
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="1"/>
@@ -968,13 +965,13 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="1"/>
@@ -990,13 +987,13 @@
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="C21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F21" s="1"/>
@@ -1012,13 +1009,13 @@
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="C22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="1"/>
@@ -1034,13 +1031,13 @@
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="C23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="1"/>
@@ -1056,13 +1053,13 @@
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="C24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="1"/>
@@ -1072,8 +1069,8 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
@@ -1092,260 +1089,362 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77D4B92-C327-774E-A329-117E86F80DA4}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="7"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="7"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="7"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="7">
         <v>3</v>
       </c>
+      <c r="D24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sem1/СО-РД-23.xlsx
+++ b/sem1/СО-РД-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444B46ED-96BC-CD47-980E-10D8C4100FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928906E6-AEAB-6248-9449-BF1F1B7137E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{CF7C3707-975C-9446-9B9A-68EF236FCF5A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CF7C3707-975C-9446-9B9A-68EF236FCF5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="31">
   <si>
     <t>№</t>
   </si>
@@ -122,10 +122,13 @@
     <t>-</t>
   </si>
   <si>
-    <t>Лаб 2</t>
-  </si>
-  <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>Доп</t>
+  </si>
+  <si>
+    <t>Воскобойников Никита</t>
   </si>
 </sst>
 </file>
@@ -149,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -172,19 +175,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -198,7 +188,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -211,6 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,17 +517,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CB48E3-61F3-564B-A83A-820A041930C1}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E24"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -547,16 +537,18 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>45173</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="5">
         <v>45182</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>45187</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="4">
+        <v>45196</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -567,18 +559,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -589,18 +583,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -611,40 +607,44 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1"/>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -655,18 +655,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -677,18 +679,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -699,40 +703,44 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -745,16 +753,18 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1"/>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -765,18 +775,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -787,40 +799,44 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -831,18 +847,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -853,18 +871,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -875,40 +895,44 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -919,18 +943,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -941,18 +967,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -963,40 +991,44 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1007,18 +1039,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1029,18 +1063,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1051,26 +1087,48 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
@@ -1083,6 +1141,9 @@
       <c r="A28" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
+    <sortCondition ref="B1:B28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1091,15 +1152,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77D4B92-C327-774E-A329-117E86F80DA4}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1109,11 +1171,11 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>28</v>
+      <c r="D1" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1125,8 +1187,8 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
@@ -1137,10 +1199,10 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="1"/>
@@ -1153,8 +1215,8 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="1"/>
@@ -1167,10 +1229,10 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
@@ -1181,8 +1243,8 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="1"/>
@@ -1195,10 +1257,10 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="1"/>
@@ -1211,10 +1273,10 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>3</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="1"/>
@@ -1227,8 +1289,8 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="1"/>
@@ -1241,8 +1303,8 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="1"/>
@@ -1255,10 +1317,10 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="1"/>
@@ -1271,10 +1333,10 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>3</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
@@ -1285,8 +1347,8 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="1"/>
@@ -1299,8 +1361,8 @@
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
@@ -1311,8 +1373,8 @@
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="1"/>
@@ -1325,8 +1387,8 @@
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
@@ -1337,10 +1399,10 @@
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>3</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="1"/>
@@ -1353,10 +1415,10 @@
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>3</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="1"/>
@@ -1369,8 +1431,8 @@
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
@@ -1381,8 +1443,8 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
@@ -1393,10 +1455,10 @@
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>2</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
@@ -1407,8 +1469,8 @@
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="1"/>
@@ -1421,10 +1483,10 @@
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>3</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="1"/>
@@ -1437,10 +1499,10 @@
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>3</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="1"/>

--- a/sem1/СО-РД-23.xlsx
+++ b/sem1/СО-РД-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928906E6-AEAB-6248-9449-BF1F1B7137E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8A3C1C-1C21-B64E-8FAB-5A0DB23AA375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CF7C3707-975C-9446-9B9A-68EF236FCF5A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
     <sheet name="Успеваемость" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="31">
   <si>
     <t>№</t>
   </si>
@@ -179,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -200,7 +200,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,7 +517,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,6 +527,7 @@
     <col min="3" max="3" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -549,7 +549,9 @@
       <c r="F1" s="4">
         <v>45196</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="4">
+        <v>45201</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -573,7 +575,9 @@
       <c r="F2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -597,7 +601,9 @@
       <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -621,16 +627,18 @@
       <c r="F4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -645,7 +653,9 @@
       <c r="F5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -669,7 +679,9 @@
       <c r="F6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -693,7 +705,9 @@
       <c r="F7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -717,13 +731,15 @@
       <c r="F8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -741,7 +757,9 @@
       <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -765,7 +783,9 @@
       <c r="F10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -781,7 +801,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>27</v>
@@ -789,7 +809,9 @@
       <c r="F11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -813,13 +835,15 @@
       <c r="F12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -837,7 +861,9 @@
       <c r="F13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -861,7 +887,9 @@
       <c r="F14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -885,7 +913,9 @@
       <c r="F15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -909,13 +939,15 @@
       <c r="F16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -933,7 +965,9 @@
       <c r="F17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -957,7 +991,9 @@
       <c r="F18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -981,7 +1017,9 @@
       <c r="F19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1005,13 +1043,15 @@
       <c r="F20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1029,7 +1069,9 @@
       <c r="F21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1053,7 +1095,9 @@
       <c r="F22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1077,7 +1121,9 @@
       <c r="F23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1101,13 +1147,15 @@
       <c r="F24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1125,7 +1173,9 @@
       <c r="F25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>

--- a/sem1/СО-РД-23.xlsx
+++ b/sem1/СО-РД-23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8A3C1C-1C21-B64E-8FAB-5A0DB23AA375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77AA621-C7A8-BA4B-A91E-78415B5E374D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CF7C3707-975C-9446-9B9A-68EF236FCF5A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="39">
   <si>
     <t>№</t>
   </si>
@@ -129,6 +129,30 @@
   </si>
   <si>
     <t>Воскобойников Никита</t>
+  </si>
+  <si>
+    <t>Лаб 2</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>Лаб 3</t>
+  </si>
+  <si>
+    <t>Лаб 4</t>
+  </si>
+  <si>
+    <t>Лаб 5</t>
+  </si>
+  <si>
+    <t>Лаб 6</t>
+  </si>
+  <si>
+    <t>Ат 1</t>
+  </si>
+  <si>
+    <t>Ат 2</t>
   </si>
 </sst>
 </file>
@@ -179,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -200,11 +224,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -514,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CB48E3-61F3-564B-A83A-820A041930C1}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,9 +616,10 @@
     <col min="4" max="4" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,11 +641,20 @@
       <c r="G1" s="4">
         <v>45201</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1" s="4">
+        <v>45210</v>
+      </c>
+      <c r="I1" s="4">
+        <v>45215</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -578,11 +676,20 @@
       <c r="G2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -604,11 +711,20 @@
       <c r="G3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -630,11 +746,20 @@
       <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -656,11 +781,20 @@
       <c r="G5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -682,11 +816,20 @@
       <c r="G6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -708,11 +851,20 @@
       <c r="G7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -734,11 +886,20 @@
       <c r="G8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -760,11 +921,20 @@
       <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -786,11 +956,20 @@
       <c r="G10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -812,11 +991,20 @@
       <c r="G11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -838,11 +1026,20 @@
       <c r="G12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -864,11 +1061,20 @@
       <c r="G13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -879,7 +1085,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>28</v>
@@ -890,11 +1096,20 @@
       <c r="G14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -916,11 +1131,20 @@
       <c r="G15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -942,11 +1166,20 @@
       <c r="G16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -968,11 +1201,20 @@
       <c r="G17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -994,11 +1236,20 @@
       <c r="G18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1020,11 +1271,20 @@
       <c r="G19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1046,11 +1306,20 @@
       <c r="G20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1072,11 +1341,20 @@
       <c r="G21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1098,11 +1376,20 @@
       <c r="G22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1124,11 +1411,20 @@
       <c r="G23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1150,11 +1446,20 @@
       <c r="G24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1176,34 +1481,44 @@
       <c r="G25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="H25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
     <sortCondition ref="B1:B28"/>
   </sortState>
+  <conditionalFormatting sqref="A2:XFD25">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77D4B92-C327-774E-A329-117E86F80DA4}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1212,9 +1527,14 @@
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" customWidth="1"/>
+    <col min="7" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1227,126 +1547,269 @@
       <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
+        <f>SUM(C2:E2)</f>
+        <v>23</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="6">
+        <f>SUM(G2:J2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <f>SUM(K2,F2)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <f>SUM(C3:E3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="6">
+        <f t="shared" ref="K3:K25" si="0">SUM(G3:J3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ref="L3:L25" si="1">SUM(K3,F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <f>SUM(C4:E4)</f>
+        <v>23</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6">
+        <f>SUM(C6:E6)</f>
+        <v>40</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
+        <f>SUM(C7:E7)</f>
+        <v>23</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6">
-        <v>3</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <f>SUM(C8:E8)</f>
+        <v>23</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <f>SUM(C9:E9)</f>
+        <v>3</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1354,211 +1817,487 @@
         <v>10</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="6">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <f>SUM(C10:E10)</f>
+        <v>3</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6">
+        <f>SUM(C11:E11)</f>
+        <v>10</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C12" s="6">
-        <v>3</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <f>SUM(C12:E12)</f>
+        <v>23</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6">
+        <f>SUM(C13:E13)</f>
         <v>13</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <f>SUM(C14:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
         <v>15</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="6">
+        <f>SUM(C15:E15)</f>
+        <v>18</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6">
+        <v>20</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
+        <f>SUM(C16:E16)</f>
+        <v>23</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6">
-        <v>3</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
+        <f>SUM(C17:E17)</f>
+        <v>20</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="6">
-        <v>3</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
+        <f>SUM(C18:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="6">
+        <v>20</v>
+      </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
+        <f>SUM(C19:E19)</f>
+        <v>20</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6">
         <v>20</v>
       </c>
-      <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="6">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6">
+        <f>SUM(C20:E20)</f>
+        <v>35</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C21" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="D21" s="6">
+        <v>3</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
+        <f>SUM(C21:E21)</f>
+        <v>17</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D22" s="6">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6">
+        <f>SUM(C22:E22)</f>
+        <v>3</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="6">
-        <v>3</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
+        <f>SUM(C23:E23)</f>
+        <v>14</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
+        <f>SUM(C24:E24)</f>
+        <v>3</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="C24" s="6">
-        <v>3</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="6">
+        <v>20</v>
+      </c>
+      <c r="D25" s="6">
+        <v>3</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6">
+        <f>SUM(C25:E25)</f>
+        <v>23</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L25">
+    <sortCondition ref="B1:B25"/>
+  </sortState>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sem1/СО-РД-23.xlsx
+++ b/sem1/СО-РД-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77AA621-C7A8-BA4B-A91E-78415B5E374D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828222FC-6E92-284C-8EF7-422D939653F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CF7C3707-975C-9446-9B9A-68EF236FCF5A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="39">
   <si>
     <t>№</t>
   </si>
@@ -203,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -223,9 +223,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,7 +602,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,7 +644,9 @@
       <c r="I1" s="4">
         <v>45215</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="4">
+        <v>45224</v>
+      </c>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -682,7 +681,9 @@
       <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -717,7 +718,9 @@
       <c r="I3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -752,7 +755,9 @@
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -787,7 +792,9 @@
       <c r="I5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -822,7 +829,9 @@
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -857,7 +866,9 @@
       <c r="I7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -892,7 +903,9 @@
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -927,7 +940,9 @@
       <c r="I9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -957,12 +972,14 @@
         <v>25</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -997,7 +1014,9 @@
       <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -1032,7 +1051,9 @@
       <c r="I12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -1067,7 +1088,9 @@
       <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -1102,7 +1125,9 @@
       <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="6"/>
+      <c r="J14" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -1137,7 +1162,9 @@
       <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -1172,7 +1199,9 @@
       <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -1207,7 +1236,9 @@
       <c r="I17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -1242,7 +1273,9 @@
       <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="6"/>
+      <c r="J18" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -1277,7 +1310,9 @@
       <c r="I19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="6"/>
+      <c r="J19" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -1312,7 +1347,9 @@
       <c r="I20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="6"/>
+      <c r="J20" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -1347,7 +1384,9 @@
       <c r="I21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="6"/>
+      <c r="J21" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -1382,7 +1421,9 @@
       <c r="I22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="6"/>
+      <c r="J22" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -1417,7 +1458,9 @@
       <c r="I23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="6"/>
+      <c r="J23" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -1447,12 +1490,14 @@
         <v>25</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -1476,18 +1521,20 @@
         <v>25</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -1517,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77D4B92-C327-774E-A329-117E86F80DA4}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1562,10 +1609,10 @@
       <c r="I1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>38</v>
       </c>
       <c r="L1" s="6" t="s">
@@ -1643,10 +1690,12 @@
       <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6">
+        <v>10</v>
+      </c>
       <c r="F4" s="6">
         <f>SUM(C4:E4)</f>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1658,7 +1707,7 @@
       </c>
       <c r="L4" s="6">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1702,20 +1751,22 @@
         <v>17</v>
       </c>
       <c r="F6" s="6">
-        <f>SUM(C6:E6)</f>
+        <f t="shared" ref="F6:F25" si="2">SUM(C6:E6)</f>
         <v>40</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6">
+        <v>10</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
       <c r="K6" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1731,22 +1782,26 @@
       <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6">
+        <v>20</v>
+      </c>
       <c r="F7" s="6">
-        <f>SUM(C7:E7)</f>
-        <v>23</v>
-      </c>
-      <c r="G7" s="6"/>
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="G7" s="6">
+        <v>10</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="1"/>
       <c r="K7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1762,10 +1817,12 @@
       <c r="D8" s="6">
         <v>3</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6">
+        <v>20</v>
+      </c>
       <c r="F8" s="6">
-        <f>SUM(C8:E8)</f>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>43</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1777,7 +1834,7 @@
       </c>
       <c r="L8" s="6">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1793,7 +1850,7 @@
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
-        <f>SUM(C9:E9)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G9" s="6"/>
@@ -1820,10 +1877,12 @@
       <c r="D10" s="6">
         <v>3</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6">
+        <v>20</v>
+      </c>
       <c r="F10" s="6">
-        <f>SUM(C10:E10)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -1835,7 +1894,7 @@
       </c>
       <c r="L10" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1851,7 +1910,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="6">
-        <f>SUM(C11:E11)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G11" s="6"/>
@@ -1882,7 +1941,7 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6">
-        <f>SUM(C12:E12)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="G12" s="6"/>
@@ -1910,11 +1969,11 @@
         <v>3</v>
       </c>
       <c r="E13" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F13" s="6">
-        <f>SUM(C13:E13)</f>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1926,7 +1985,7 @@
       </c>
       <c r="L13" s="6">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1940,7 +1999,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <f>SUM(C14:E14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G14" s="6"/>
@@ -1971,7 +2030,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="6">
-        <f>SUM(C15:E15)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="G15" s="6"/>
@@ -2002,7 +2061,7 @@
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6">
-        <f>SUM(C16:E16)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="G16" s="6"/>
@@ -2031,7 +2090,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6">
-        <f>SUM(C17:E17)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G17" s="6"/>
@@ -2056,10 +2115,12 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6">
+        <v>20</v>
+      </c>
       <c r="F18" s="6">
-        <f>SUM(C18:E18)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -2071,7 +2132,7 @@
       </c>
       <c r="L18" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2087,7 +2148,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6">
-        <f>SUM(C19:E19)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G19" s="6"/>
@@ -2118,7 +2179,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="6">
-        <f>SUM(C20:E20)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="G20" s="6"/>
@@ -2149,7 +2210,7 @@
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6">
-        <f>SUM(C21:E21)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="G21" s="6"/>
@@ -2176,10 +2237,12 @@
       <c r="D22" s="6">
         <v>3</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6">
+        <v>10</v>
+      </c>
       <c r="F22" s="6">
-        <f>SUM(C22:E22)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -2191,7 +2254,7 @@
       </c>
       <c r="L22" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -2202,13 +2265,15 @@
         <v>21</v>
       </c>
       <c r="C23" s="6">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6">
+        <v>10</v>
+      </c>
       <c r="F23" s="6">
-        <f>SUM(C23:E23)</f>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -2220,7 +2285,7 @@
       </c>
       <c r="L23" s="6">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -2236,7 +2301,7 @@
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6">
-        <f>SUM(C24:E24)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G24" s="6"/>
@@ -2267,7 +2332,7 @@
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6">
-        <f>SUM(C25:E25)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="G25" s="6"/>

--- a/sem1/СО-РД-23.xlsx
+++ b/sem1/СО-РД-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828222FC-6E92-284C-8EF7-422D939653F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8AD1AD-1F62-2A4F-91E5-78981C77481D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CF7C3707-975C-9446-9B9A-68EF236FCF5A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{CF7C3707-975C-9446-9B9A-68EF236FCF5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="39">
   <si>
     <t>№</t>
   </si>
@@ -116,30 +116,18 @@
     <t>+</t>
   </si>
   <si>
-    <t>Лаб 1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>=</t>
   </si>
   <si>
-    <t>Доп</t>
-  </si>
-  <si>
     <t>Воскобойников Никита</t>
   </si>
   <si>
-    <t>Лаб 2</t>
-  </si>
-  <si>
     <t>Итог</t>
   </si>
   <si>
-    <t>Лаб 3</t>
-  </si>
-  <si>
     <t>Лаб 4</t>
   </si>
   <si>
@@ -153,6 +141,18 @@
   </si>
   <si>
     <t>Ат 2</t>
+  </si>
+  <si>
+    <t>Лаб 3 (10)</t>
+  </si>
+  <si>
+    <t>Лаб 2 (10)</t>
+  </si>
+  <si>
+    <t>Доп (5)</t>
+  </si>
+  <si>
+    <t>Лаб 1 (15)</t>
   </si>
 </sst>
 </file>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CB48E3-61F3-564B-A83A-820A041930C1}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,7 +613,7 @@
     <col min="4" max="4" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -647,7 +647,9 @@
       <c r="J1" s="4">
         <v>45224</v>
       </c>
-      <c r="K1" s="6"/>
+      <c r="K1" s="4">
+        <v>45229</v>
+      </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
@@ -684,7 +686,9 @@
       <c r="J2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -701,16 +705,16 @@
         <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>25</v>
@@ -721,7 +725,9 @@
       <c r="J3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -758,7 +764,9 @@
       <c r="J4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -769,16 +777,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>25</v>
@@ -787,15 +795,17 @@
         <v>25</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -832,7 +842,9 @@
       <c r="J6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -849,7 +861,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
@@ -869,7 +881,9 @@
       <c r="J7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -895,7 +909,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>25</v>
@@ -906,7 +920,9 @@
       <c r="J8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -929,21 +945,23 @@
         <v>25</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="H9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -960,27 +978,29 @@
         <v>25</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="I10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -1000,24 +1020,26 @@
         <v>25</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -1040,21 +1062,23 @@
         <v>25</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -1077,13 +1101,13 @@
         <v>25</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>25</v>
@@ -1091,7 +1115,9 @@
       <c r="J13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -1108,10 +1134,10 @@
         <v>25</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>25</v>
@@ -1128,7 +1154,9 @@
       <c r="J14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -1145,13 +1173,13 @@
         <v>25</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>25</v>
@@ -1165,7 +1193,9 @@
       <c r="J15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -1188,7 +1218,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>25</v>
@@ -1200,9 +1230,11 @@
         <v>25</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -1219,13 +1251,13 @@
         <v>25</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>25</v>
@@ -1237,9 +1269,11 @@
         <v>25</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -1259,7 +1293,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>25</v>
@@ -1276,7 +1310,9 @@
       <c r="J18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -1296,24 +1332,26 @@
         <v>25</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -1333,13 +1371,13 @@
         <v>25</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>25</v>
@@ -1350,7 +1388,9 @@
       <c r="J20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="6"/>
+      <c r="K20" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -1376,18 +1416,20 @@
         <v>25</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="6"/>
+      <c r="K21" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -1404,27 +1446,29 @@
         <v>25</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="H22" s="6" t="s">
         <v>25</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="6"/>
+      <c r="K22" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -1444,7 +1488,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>25</v>
@@ -1461,7 +1505,9 @@
       <c r="J23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="6"/>
+      <c r="K23" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -1478,27 +1524,29 @@
         <v>25</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="I24" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="6"/>
+      <c r="K24" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
@@ -1521,21 +1569,23 @@
         <v>25</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="6"/>
+      <c r="K25" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -1564,19 +1614,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77D4B92-C327-774E-A329-117E86F80DA4}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" customWidth="1"/>
-    <col min="7" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.5" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1589,34 +1639,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1627,27 +1677,24 @@
         <v>17</v>
       </c>
       <c r="C2" s="6">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6">
+        <f>SUM(C2:F2)</f>
         <v>20</v>
       </c>
-      <c r="D2" s="6">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6">
-        <f>SUM(C2:E2)</f>
-        <v>23</v>
-      </c>
-      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="6">
-        <f>SUM(G2:J2)</f>
-        <v>0</v>
-      </c>
+      <c r="K2" s="6"/>
       <c r="L2" s="6">
-        <f>SUM(K2,F2)</f>
-        <v>23</v>
+        <f>SUM(K2,G2)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1660,20 +1707,17 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="6">
-        <f>SUM(C3:E3)</f>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G25" si="0">SUM(C3:F3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="6">
-        <f t="shared" ref="K3:K25" si="0">SUM(G3:J3)</f>
-        <v>0</v>
-      </c>
+      <c r="K3" s="6"/>
       <c r="L3" s="6">
-        <f t="shared" ref="L3:L25" si="1">SUM(K3,F3)</f>
+        <f>SUM(K3,G3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1685,29 +1729,26 @@
         <v>8</v>
       </c>
       <c r="C4" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6">
         <v>10</v>
       </c>
-      <c r="F4" s="6">
-        <f>SUM(C4:E4)</f>
-        <v>33</v>
-      </c>
-      <c r="G4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K4" s="6"/>
       <c r="L4" s="6">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f>SUM(K4,G4)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1715,22 +1756,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K5" s="6"/>
       <c r="L5" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(K5,G5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1742,31 +1783,28 @@
         <v>23</v>
       </c>
       <c r="C6" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="6">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" ref="F6:F25" si="2">SUM(C6:E6)</f>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G6" s="6">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+      <c r="K6" s="6"/>
       <c r="L6" s="6">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f>SUM(K6,G6)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1777,31 +1815,28 @@
         <v>9</v>
       </c>
       <c r="C7" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="2"/>
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G7" s="6">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+      <c r="K7" s="6"/>
       <c r="L7" s="6">
-        <f t="shared" si="1"/>
-        <v>53</v>
+        <f>SUM(K7,G7)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1812,29 +1847,28 @@
         <v>3</v>
       </c>
       <c r="C8" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="G8" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K8" s="6"/>
       <c r="L8" s="6">
-        <f t="shared" si="1"/>
-        <v>43</v>
+        <f>SUM(K8,G8)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1846,24 +1880,21 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="6">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K9" s="6"/>
       <c r="L9" s="6">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>SUM(K9,G9)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1873,28 +1904,29 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6">
+        <v>15</v>
+      </c>
       <c r="D10" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="G10" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K10" s="6"/>
       <c r="L10" s="6">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f>SUM(K10,G10)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1909,20 +1941,17 @@
       <c r="E11" s="6">
         <v>10</v>
       </c>
-      <c r="F11" s="6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K11" s="6"/>
       <c r="L11" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(K11,G11)</f>
         <v>10</v>
       </c>
     </row>
@@ -1934,27 +1963,24 @@
         <v>18</v>
       </c>
       <c r="C12" s="6">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D12" s="6">
-        <v>3</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K12" s="6"/>
       <c r="L12" s="6">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f>SUM(K12,G12)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1966,26 +1992,23 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" s="6">
-        <v>15</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="G13" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K13" s="6"/>
       <c r="L13" s="6">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f>SUM(K13,G13)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1997,22 +2020,21 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="6"/>
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K14" s="6"/>
       <c r="L14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(K14,G14)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2024,26 +2046,25 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" s="6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="G15" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K15" s="6"/>
       <c r="L15" s="6">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f>SUM(K15,G15)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2054,27 +2075,28 @@
         <v>7</v>
       </c>
       <c r="C16" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D16" s="6">
-        <v>3</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="E16" s="6">
+        <v>10</v>
+      </c>
       <c r="F16" s="6">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="G16" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K16" s="6"/>
       <c r="L16" s="6">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f>SUM(K16,G16)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2085,25 +2107,24 @@
         <v>20</v>
       </c>
       <c r="C17" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G17" s="6"/>
+      <c r="E17" s="6">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K17" s="6"/>
       <c r="L17" s="6">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>SUM(K17,G17)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2113,26 +2134,25 @@
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6">
+        <v>15</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6">
-        <v>20</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G18" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K18" s="6"/>
       <c r="L18" s="6">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>SUM(K18,G18)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2143,25 +2163,22 @@
         <v>12</v>
       </c>
       <c r="C19" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K19" s="6"/>
       <c r="L19" s="6">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>SUM(K19,G19)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -2172,27 +2189,26 @@
         <v>5</v>
       </c>
       <c r="C20" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="G20" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K20" s="6"/>
       <c r="L20" s="6">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f>SUM(K20,G20)</f>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2203,27 +2219,24 @@
         <v>11</v>
       </c>
       <c r="C21" s="6">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D21" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="6">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="G21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K21" s="6"/>
       <c r="L21" s="6">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f>SUM(K21,G21)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -2235,26 +2248,23 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" s="6">
-        <v>10</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="G22" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K22" s="6"/>
       <c r="L22" s="6">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f>SUM(K22,G22)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -2265,27 +2275,26 @@
         <v>21</v>
       </c>
       <c r="C23" s="6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="G23" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K23" s="6"/>
       <c r="L23" s="6">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f>SUM(K23,G23)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -2297,24 +2306,21 @@
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="6">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K24" s="6"/>
       <c r="L24" s="6">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>SUM(K24,G24)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -2325,27 +2331,28 @@
         <v>24</v>
       </c>
       <c r="C25" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D25" s="6">
-        <v>3</v>
-      </c>
-      <c r="E25" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="E25" s="6">
+        <v>10</v>
+      </c>
       <c r="F25" s="6">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="G25" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K25" s="6"/>
       <c r="L25" s="6">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f>SUM(K25,G25)</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/sem1/СО-РД-23.xlsx
+++ b/sem1/СО-РД-23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8AD1AD-1F62-2A4F-91E5-78981C77481D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5BD0DC-3945-8346-8C70-BCCF5D3F4857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{CF7C3707-975C-9446-9B9A-68EF236FCF5A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="40">
   <si>
     <t>№</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Лаб 1 (15)</t>
+  </si>
+  <si>
+    <t>±</t>
   </si>
 </sst>
 </file>
@@ -601,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CB48E3-61F3-564B-A83A-820A041930C1}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView zoomScale="145" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,6 +617,7 @@
     <col min="5" max="6" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -650,8 +654,12 @@
       <c r="K1" s="4">
         <v>45229</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="L1" s="4">
+        <v>45238</v>
+      </c>
+      <c r="M1" s="4">
+        <v>45243</v>
+      </c>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
@@ -689,8 +697,12 @@
       <c r="K2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
     </row>
@@ -728,8 +740,12 @@
       <c r="K3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
@@ -765,10 +781,14 @@
         <v>25</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
     </row>
@@ -806,8 +826,12 @@
       <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
     </row>
@@ -845,8 +869,12 @@
       <c r="K6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
     </row>
@@ -884,8 +912,12 @@
       <c r="K7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
@@ -923,8 +955,12 @@
       <c r="K8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
     </row>
@@ -962,8 +998,12 @@
       <c r="K9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
     </row>
@@ -1001,8 +1041,12 @@
       <c r="K10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
@@ -1040,8 +1084,12 @@
       <c r="K11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
@@ -1079,8 +1127,12 @@
       <c r="K12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
@@ -1118,8 +1170,12 @@
       <c r="K13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
     </row>
@@ -1157,8 +1213,12 @@
       <c r="K14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
@@ -1196,8 +1256,12 @@
       <c r="K15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
     </row>
@@ -1235,8 +1299,12 @@
       <c r="K16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
     </row>
@@ -1274,8 +1342,12 @@
       <c r="K17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
@@ -1313,8 +1385,12 @@
       <c r="K18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
@@ -1352,8 +1428,12 @@
       <c r="K19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
     </row>
@@ -1391,8 +1471,12 @@
       <c r="K20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
     </row>
@@ -1430,8 +1514,12 @@
       <c r="K21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
     </row>
@@ -1469,8 +1557,12 @@
       <c r="K22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
     </row>
@@ -1508,8 +1600,12 @@
       <c r="K23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
     </row>
@@ -1547,8 +1643,12 @@
       <c r="K24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="L24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
     </row>
@@ -1586,8 +1686,12 @@
       <c r="K25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="L25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
     </row>
@@ -1614,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77D4B92-C327-774E-A329-117E86F80DA4}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1693,7 +1797,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6">
-        <f>SUM(K2,G2)</f>
+        <f t="shared" ref="L2:L25" si="0">SUM(K2,G2)</f>
         <v>20</v>
       </c>
     </row>
@@ -1706,19 +1810,21 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6">
+        <v>7</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G25" si="0">SUM(C3:F3)</f>
-        <v>0</v>
+        <f t="shared" ref="G3:G25" si="1">SUM(C3:F3)</f>
+        <v>7</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6">
-        <f>SUM(K3,G3)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1739,7 +1845,7 @@
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H4" s="6"/>
@@ -1747,7 +1853,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6">
-        <f>SUM(K4,G4)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -1763,7 +1869,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5" s="1"/>
@@ -1771,7 +1877,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6">
-        <f>SUM(K5,G5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1795,15 +1901,17 @@
         <v>10</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6">
-        <f>SUM(K6,G6)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -1827,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="H7" s="6"/>
@@ -1835,7 +1943,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6">
-        <f>SUM(K7,G7)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -1859,7 +1967,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="H8" s="6"/>
@@ -1867,7 +1975,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6">
-        <f>SUM(K8,G8)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -1882,19 +1990,21 @@
       <c r="D9" s="6">
         <v>5</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6">
+        <v>7</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6">
-        <f>SUM(K9,G9)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1917,15 +2027,17 @@
         <v>10</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="1"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6">
-        <f>SUM(K10,G10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -1943,7 +2055,7 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H11" s="6"/>
@@ -1951,7 +2063,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6">
-        <f>SUM(K11,G11)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -1971,7 +2083,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H12" s="6"/>
@@ -1979,7 +2091,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6">
-        <f>SUM(K12,G12)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -1999,7 +2111,7 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="H13" s="6"/>
@@ -2007,7 +2119,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6">
-        <f>SUM(K13,G13)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -2025,7 +2137,7 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H14" s="6"/>
@@ -2033,7 +2145,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6">
-        <f>SUM(K14,G14)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2055,7 +2167,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="H15" s="6"/>
@@ -2063,7 +2175,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6">
-        <f>SUM(K15,G15)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
@@ -2087,7 +2199,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="H16" s="6"/>
@@ -2095,7 +2207,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6">
-        <f>SUM(K16,G16)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -2115,7 +2227,7 @@
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="H17" s="6"/>
@@ -2123,7 +2235,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6">
-        <f>SUM(K17,G17)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -2143,7 +2255,7 @@
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="H18" s="6"/>
@@ -2151,7 +2263,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6">
-        <f>SUM(K18,G18)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -2169,7 +2281,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H19" s="6"/>
@@ -2177,7 +2289,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6">
-        <f>SUM(K19,G19)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -2199,7 +2311,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="H20" s="6"/>
@@ -2207,7 +2319,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6">
-        <f>SUM(K20,G20)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
@@ -2227,7 +2339,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="H21" s="6"/>
@@ -2235,7 +2347,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6">
-        <f>SUM(K21,G21)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -2255,7 +2367,7 @@
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H22" s="6"/>
@@ -2263,7 +2375,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6">
-        <f>SUM(K22,G22)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2285,7 +2397,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H23" s="6"/>
@@ -2293,7 +2405,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6">
-        <f>SUM(K23,G23)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -2311,7 +2423,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H24" s="6"/>
@@ -2319,7 +2431,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6">
-        <f>SUM(K24,G24)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2343,7 +2455,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="H25" s="6"/>
@@ -2351,7 +2463,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6">
-        <f>SUM(K25,G25)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>

--- a/sem1/СО-РД-23.xlsx
+++ b/sem1/СО-РД-23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5BD0DC-3945-8346-8C70-BCCF5D3F4857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647584BC-A27B-9F46-8B2F-E7893F4FB9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{CF7C3707-975C-9446-9B9A-68EF236FCF5A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="40">
   <si>
     <t>№</t>
   </si>
@@ -604,8 +604,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CB48E3-61F3-564B-A83A-820A041930C1}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScale="145" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView zoomScale="155" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -618,6 +621,7 @@
     <col min="7" max="7" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="6.5" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -660,7 +664,9 @@
       <c r="M1" s="4">
         <v>45243</v>
       </c>
-      <c r="N1" s="6"/>
+      <c r="N1" s="4">
+        <v>45252</v>
+      </c>
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -703,7 +709,9 @@
       <c r="M2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="6"/>
+      <c r="N2" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -746,7 +754,9 @@
       <c r="M3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="6"/>
+      <c r="N3" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -789,7 +799,9 @@
       <c r="M4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="6"/>
+      <c r="N4" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -832,7 +844,9 @@
       <c r="M5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="6"/>
+      <c r="N5" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -875,7 +889,9 @@
       <c r="M6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="6"/>
+      <c r="N6" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -918,7 +934,9 @@
       <c r="M7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -961,7 +979,9 @@
       <c r="M8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="6"/>
+      <c r="N8" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1004,7 +1024,9 @@
       <c r="M9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="6"/>
+      <c r="N9" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1047,7 +1069,9 @@
       <c r="M10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="6"/>
+      <c r="N10" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1090,7 +1114,9 @@
       <c r="M11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="6"/>
+      <c r="N11" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1133,7 +1159,9 @@
       <c r="M12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="6"/>
+      <c r="N12" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1176,7 +1204,9 @@
       <c r="M13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="6"/>
+      <c r="N13" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1219,7 +1249,9 @@
       <c r="M14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="6"/>
+      <c r="N14" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1262,7 +1294,9 @@
       <c r="M15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="6"/>
+      <c r="N15" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1305,7 +1339,9 @@
       <c r="M16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="6"/>
+      <c r="N16" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1348,7 +1384,9 @@
       <c r="M17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="6"/>
+      <c r="N17" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -1391,7 +1429,9 @@
       <c r="M18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="6"/>
+      <c r="N18" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1434,7 +1474,9 @@
       <c r="M19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="6"/>
+      <c r="N19" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1477,7 +1519,9 @@
       <c r="M20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="6"/>
+      <c r="N20" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1520,7 +1564,9 @@
       <c r="M21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="6"/>
+      <c r="N21" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1563,7 +1609,9 @@
       <c r="M22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="6"/>
+      <c r="N22" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1606,7 +1654,9 @@
       <c r="M23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="6"/>
+      <c r="N23" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1649,7 +1699,9 @@
       <c r="M24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="6"/>
+      <c r="N24" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O24" s="6"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -1692,7 +1744,9 @@
       <c r="M25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N25" s="6"/>
+      <c r="N25" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O25" s="6"/>
     </row>
   </sheetData>
@@ -1719,7 +1773,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1786,11 +1840,15 @@
       <c r="D2" s="6">
         <v>5</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="E2" s="6">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6">
+        <v>10</v>
+      </c>
       <c r="G2" s="6">
         <f>SUM(C2:F2)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -1798,7 +1856,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6">
         <f t="shared" ref="L2:L25" si="0">SUM(K2,G2)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1907,7 +1965,9 @@
       <c r="H6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6">
@@ -1971,7 +2031,9 @@
         <v>40</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6">
@@ -1998,7 +2060,9 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
@@ -2170,7 +2234,9 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="1"/>
       <c r="K15" s="6"/>
@@ -2370,7 +2436,9 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="I22" s="6"/>
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>

--- a/sem1/СО-РД-23.xlsx
+++ b/sem1/СО-РД-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647584BC-A27B-9F46-8B2F-E7893F4FB9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48460B8D-6CA6-044B-BD8F-1053219B229D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{CF7C3707-975C-9446-9B9A-68EF236FCF5A}"/>
+    <workbookView xWindow="4800" yWindow="4300" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{CF7C3707-975C-9446-9B9A-68EF236FCF5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="42">
   <si>
     <t>№</t>
   </si>
@@ -128,34 +128,40 @@
     <t>Итог</t>
   </si>
   <si>
-    <t>Лаб 4</t>
-  </si>
-  <si>
-    <t>Лаб 5</t>
-  </si>
-  <si>
-    <t>Лаб 6</t>
-  </si>
-  <si>
-    <t>Ат 1</t>
-  </si>
-  <si>
-    <t>Ат 2</t>
-  </si>
-  <si>
     <t>Лаб 3 (10)</t>
   </si>
   <si>
     <t>Лаб 2 (10)</t>
   </si>
   <si>
-    <t>Доп (5)</t>
-  </si>
-  <si>
     <t>Лаб 1 (15)</t>
   </si>
   <si>
     <t>±</t>
+  </si>
+  <si>
+    <t>Лаб 4 (10)</t>
+  </si>
+  <si>
+    <t>Лаб 5 (10)</t>
+  </si>
+  <si>
+    <t>Лаб 6 (10)</t>
+  </si>
+  <si>
+    <t>Лаб 7 (10)</t>
+  </si>
+  <si>
+    <t>Сборка (5)</t>
+  </si>
+  <si>
+    <t>Лаб 8 (10)</t>
+  </si>
+  <si>
+    <t>Посещаемость (10)</t>
+  </si>
+  <si>
+    <t>Оценка</t>
   </si>
 </sst>
 </file>
@@ -206,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -227,11 +233,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -289,6 +338,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -602,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CB48E3-61F3-564B-A83A-820A041930C1}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView zoomScale="155" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="182" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -621,10 +677,11 @@
     <col min="7" max="7" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="6.5" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,9 +724,17 @@
       <c r="N1" s="4">
         <v>45252</v>
       </c>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O1" s="4">
+        <v>45257</v>
+      </c>
+      <c r="P1" s="4">
+        <v>45266</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -712,9 +777,17 @@
       <c r="N2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -757,9 +830,17 @@
       <c r="N3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -802,9 +883,17 @@
       <c r="N4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -847,9 +936,17 @@
       <c r="N5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -892,9 +989,17 @@
       <c r="N6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -937,9 +1042,17 @@
       <c r="N7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -977,14 +1090,22 @@
         <v>25</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1027,9 +1148,17 @@
       <c r="N9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1072,9 +1201,17 @@
       <c r="N10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1117,9 +1254,17 @@
       <c r="N11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1162,9 +1307,17 @@
       <c r="N12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1207,9 +1360,17 @@
       <c r="N13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1252,9 +1413,17 @@
       <c r="N14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1297,9 +1466,17 @@
       <c r="N15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1342,9 +1519,17 @@
       <c r="N16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1387,9 +1572,17 @@
       <c r="N17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1432,9 +1625,17 @@
       <c r="N18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1477,9 +1678,17 @@
       <c r="N19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1522,9 +1731,17 @@
       <c r="N20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1567,9 +1784,17 @@
       <c r="N21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1612,9 +1837,17 @@
       <c r="N22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1657,9 +1890,17 @@
       <c r="N23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="6"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1702,9 +1943,17 @@
       <c r="N24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O24" s="6"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1747,20 +1996,31 @@
       <c r="N25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O25" s="6"/>
+      <c r="O25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
     <sortCondition ref="B1:B28"/>
   </sortState>
   <conditionalFormatting sqref="A2:XFD25">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>"±"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1770,10 +2030,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77D4B92-C327-774E-A329-117E86F80DA4}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1781,15 +2041,14 @@
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1797,37 +2056,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="K1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N1" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1846,20 +2111,19 @@
       <c r="F2" s="6">
         <v>10</v>
       </c>
-      <c r="G2" s="6">
-        <f>SUM(C2:F2)</f>
-        <v>40</v>
-      </c>
+      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="6">
-        <f t="shared" ref="L2:L25" si="0">SUM(K2,G2)</f>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6">
+        <f>SUM(C2:L2)</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1872,20 +2136,19 @@
         <v>7</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:G25" si="1">SUM(C3:F3)</f>
-        <v>7</v>
-      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="6">
-        <f t="shared" si="0"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6">
+        <f t="shared" ref="M3:M25" si="0">SUM(C3:L3)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1902,20 +2165,21 @@
         <v>10</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="6">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="1"/>
+      <c r="I4" s="6">
+        <v>6</v>
+      </c>
+      <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="6">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1926,20 +2190,19 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="6">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1959,119 +2222,127 @@
         <v>10</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="H6" s="6">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="6">
+      <c r="L6" s="6"/>
+      <c r="M6" s="6">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6">
+        <v>10</v>
+      </c>
+      <c r="H7" s="6">
+        <v>10</v>
+      </c>
+      <c r="I7" s="6">
+        <v>10</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
+        <v>10</v>
+      </c>
+      <c r="H8" s="6">
+        <v>10</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
+        <v>6</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6">
-        <v>5</v>
-      </c>
-      <c r="E8" s="6">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2091,21 +2362,24 @@
         <v>10</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="H10" s="6">
+        <v>10</v>
+      </c>
+      <c r="I10" s="6">
+        <v>10</v>
+      </c>
+      <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="6">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2118,20 +2392,19 @@
         <v>10</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="6">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2146,20 +2419,19 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
+      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="6">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2174,20 +2446,19 @@
         <v>8</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="6">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
+      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="6">
+      <c r="L13" s="6"/>
+      <c r="M13" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2200,20 +2471,19 @@
         <v>10</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="6">
+      <c r="L14" s="6"/>
+      <c r="M14" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2231,21 +2501,22 @@
         <v>10</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6">
+        <v>10</v>
+      </c>
+      <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="6">
+      <c r="L15" s="6"/>
+      <c r="M15" s="6">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2264,20 +2535,19 @@
       <c r="F16" s="6">
         <v>8</v>
       </c>
-      <c r="G16" s="6">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
+      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="6">
+      <c r="L16" s="6"/>
+      <c r="M16" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2292,20 +2562,21 @@
         <v>10</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="6">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
+      <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="1"/>
+      <c r="I17" s="6">
+        <v>3</v>
+      </c>
+      <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="6">
+      <c r="L17" s="6"/>
+      <c r="M17" s="6">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2320,20 +2591,19 @@
         <v>10</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="6">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="6">
+      <c r="L18" s="6"/>
+      <c r="M18" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2346,20 +2616,21 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="1"/>
+      <c r="I19" s="6">
+        <v>6</v>
+      </c>
+      <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="6">
+      <c r="L19" s="6"/>
+      <c r="M19" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2377,19 +2648,22 @@
         <v>10</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="1"/>
+      <c r="I20" s="6">
+        <v>10</v>
+      </c>
+      <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="6">
+      <c r="L20" s="6"/>
+      <c r="M20" s="6">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2404,20 +2678,19 @@
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6">
+      <c r="L21" s="6"/>
+      <c r="M21" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2433,21 +2706,20 @@
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="6">
+      <c r="L22" s="6"/>
+      <c r="M22" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2464,20 +2736,21 @@
       <c r="F23" s="6">
         <v>10</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="1"/>
+      <c r="I23" s="6">
+        <v>8</v>
+      </c>
+      <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="6">
+      <c r="L23" s="6"/>
+      <c r="M23" s="6">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2490,20 +2763,19 @@
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="6">
+      <c r="L24" s="6"/>
+      <c r="M24" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2522,32 +2794,42 @@
       <c r="F25" s="6">
         <v>10</v>
       </c>
-      <c r="G25" s="6">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="6">
+      <c r="L25" s="6"/>
+      <c r="M25" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
+      <c r="N25" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L25">
     <sortCondition ref="B1:B25"/>
   </sortState>
   <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M25">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThanOrEqual">
+      <formula>61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
+      <formula>76</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>91</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sem1/СО-РД-23.xlsx
+++ b/sem1/СО-РД-23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Work/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7836EA73-2773-7A46-936B-73BD79A99FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C475FE34-3EC1-4348-8477-D4E3E4653CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{CF7C3707-975C-9446-9B9A-68EF236FCF5A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="46">
   <si>
     <t>№</t>
   </si>
@@ -158,10 +158,22 @@
     <t>Лаб 8 (10)</t>
   </si>
   <si>
-    <t>Посещаемость (10)</t>
-  </si>
-  <si>
     <t>Оценка</t>
+  </si>
+  <si>
+    <t>Хорошо</t>
+  </si>
+  <si>
+    <t>Отлично</t>
+  </si>
+  <si>
+    <t>Удовлетворительно</t>
+  </si>
+  <si>
+    <t>Не аттестован</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -651,7 +663,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2071,7 +2083,10 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <pane xSplit="2" ySplit="25" topLeftCell="K26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2082,11 +2097,12 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.83203125" style="2"/>
+    <col min="12" max="12" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2121,16 +2137,13 @@
         <v>39</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2149,8 +2162,12 @@
       <c r="F2" s="6">
         <v>10</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="G2" s="6">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6">
+        <v>10</v>
+      </c>
       <c r="I2" s="6">
         <v>10</v>
       </c>
@@ -2160,14 +2177,14 @@
       <c r="K2" s="6">
         <v>10</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6">
-        <f>SUM(C2:L2)</f>
-        <v>70</v>
-      </c>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L2" s="6">
+        <v>91</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2179,7 +2196,9 @@
       <c r="E3" s="6">
         <v>7</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6">
+        <v>10</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6">
         <v>5</v>
@@ -2191,14 +2210,14 @@
         <v>5</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6">
-        <f t="shared" ref="M3:M25" si="0">SUM(C3:L3)</f>
-        <v>22</v>
-      </c>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L3" s="6">
+        <v>61</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2218,18 +2237,22 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6">
-        <v>6</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6">
+        <v>5</v>
+      </c>
+      <c r="K4" s="6">
+        <v>10</v>
+      </c>
+      <c r="L4" s="6">
+        <v>61</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2245,14 +2268,15 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6">
-        <f t="shared" si="0"/>
+      <c r="L5" s="6">
+        <f>SUM(C5:K5)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M5" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2286,14 +2310,14 @@
       <c r="K6" s="6">
         <v>10</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L6" s="6">
+        <v>91</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2325,14 +2349,14 @@
         <v>10</v>
       </c>
       <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L7" s="6">
+        <v>91</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2361,15 +2385,17 @@
         <v>10</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K8" s="6">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6">
+        <v>91</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2396,15 +2422,17 @@
       <c r="J9" s="6">
         <v>7</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K9" s="6">
+        <v>10</v>
+      </c>
+      <c r="L9" s="6">
+        <v>61</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2434,14 +2462,15 @@
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6">
-        <f t="shared" si="0"/>
+      <c r="L10" s="6">
+        <f>SUM(C10:K10)</f>
         <v>65</v>
       </c>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M10" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2459,16 +2488,18 @@
       <c r="I11" s="6">
         <v>10</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="6">
+        <v>10</v>
+      </c>
       <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L11" s="6">
+        <v>61</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2488,14 +2519,15 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6">
-        <f t="shared" si="0"/>
+      <c r="L12" s="6">
+        <f>SUM(C12:K12)</f>
         <v>20</v>
       </c>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M12" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2509,24 +2541,28 @@
       <c r="E13" s="6">
         <v>8</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6">
+        <v>5</v>
+      </c>
       <c r="G13" s="6">
         <v>10</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6">
+        <v>5</v>
+      </c>
       <c r="I13" s="6">
         <v>10</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L13" s="6">
+        <v>61</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2538,22 +2574,30 @@
       <c r="E14" s="6">
         <v>10</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="6">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6">
+        <v>5</v>
+      </c>
       <c r="H14" s="6">
         <v>10</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="I14" s="6">
+        <v>5</v>
+      </c>
+      <c r="J14" s="6">
+        <v>10</v>
+      </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L14" s="6">
+        <v>61</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2583,14 +2627,14 @@
         <v>10</v>
       </c>
       <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L15" s="6">
+        <v>76</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2614,14 +2658,14 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L16" s="6">
+        <v>61</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2639,18 +2683,20 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6">
-        <v>3</v>
-      </c>
-      <c r="J17" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="6">
+        <v>10</v>
+      </c>
       <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L17" s="6">
+        <v>61</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2671,17 +2717,19 @@
       <c r="H18" s="6">
         <v>10</v>
       </c>
-      <c r="I18" s="6"/>
+      <c r="I18" s="6">
+        <v>10</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L18" s="6">
+        <v>61</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2692,23 +2740,29 @@
         <v>15</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="6">
+        <v>10</v>
+      </c>
+      <c r="F19" s="6">
+        <v>10</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6">
         <v>6</v>
       </c>
-      <c r="J19" s="6"/>
+      <c r="J19" s="6">
+        <v>10</v>
+      </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L19" s="6">
+        <v>61</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2738,14 +2792,14 @@
         <v>7</v>
       </c>
       <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L20" s="6">
+        <v>76</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2765,14 +2819,15 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6">
-        <f t="shared" si="0"/>
+      <c r="L21" s="6">
+        <f>SUM(C21:K21)</f>
         <v>13</v>
       </c>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M21" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2797,15 +2852,17 @@
         <v>10</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K22" s="6">
+        <v>6</v>
+      </c>
+      <c r="L22" s="6">
+        <v>61</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2822,7 +2879,9 @@
       <c r="F23" s="6">
         <v>10</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="G23" s="6">
+        <v>10</v>
+      </c>
       <c r="H23" s="6">
         <v>10</v>
       </c>
@@ -2831,14 +2890,14 @@
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L23" s="6">
+        <v>61</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2849,23 +2908,31 @@
       <c r="D24" s="6">
         <v>5</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6">
+        <v>10</v>
+      </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="G24" s="6">
+        <v>10</v>
+      </c>
+      <c r="H24" s="6">
+        <v>10</v>
+      </c>
+      <c r="I24" s="6">
+        <v>10</v>
+      </c>
       <c r="J24" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L24" s="6">
+        <v>61</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2889,12 +2956,12 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="N25" s="6"/>
+      <c r="L25" s="6">
+        <v>76</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L25">
@@ -2911,7 +2978,7 @@
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M25">
+  <conditionalFormatting sqref="L2:L25">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
       <formula>91</formula>
     </cfRule>
